--- a/biology/Botanique/Parc_du_Bergoje/Parc_du_Bergoje.xlsx
+++ b/biology/Botanique/Parc_du_Bergoje/Parc_du_Bergoje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du Bergoje est un parc de quartier de la commune bruxelloise d'Auderghem avec fonction de passage, reliant la chaussée de Wavre à la rue Jacques Bassem. Il est une relique de la forêt de Soignes.
-Le sentier de grande randonnée GR 579[1] (Bruxelles-Liège) traverse le parc du Bergoje en longeant la rivière du Rouge-Cloître. Le propriétaire est la Région de Bruxelles-Capitale et la gestion est assuré par Bruxelles Environnement – IBGE.
+Le sentier de grande randonnée GR 579 (Bruxelles-Liège) traverse le parc du Bergoje en longeant la rivière du Rouge-Cloître. Le propriétaire est la Région de Bruxelles-Capitale et la gestion est assuré par Bruxelles Environnement – IBGE.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite partie de terre argileuse appartenant à la Forêt de Soignes, le Bergoje (le nom vient de berg –
 colline – et oje – maison) en a été séparé en 1729 lors de la construction de la chaussée reliant Bruxelles à Wavre.
@@ -547,7 +561,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le relief est très marqué. Orienté au sud, un talus très pentu porte une végétation boisée.
 Sur la crête, on trouve des châtaigniers et sur le versant un mélange de chênes, de hêtres et de châtaigniers. On y trouve aussi quelques robiniers, des érables, des frênes et quelques marronniers. S'y ajoutent une série d’arbustes comme du houx ou des sureaux.
@@ -556,7 +572,7 @@
 Troisième biotope du parc, la zone humide qu’alimente le Roodkloosterbeek. Isolée des promeneurs par de
 petits ruisseaux, elle comporte un étang, recreusé lors des aménagements du parc, qu’entourent de larges
 plages de végétation typique des marécages et une aulnaie-frênaie marécageuse. Un ponton permet de
-dominer et d’observer le marais[2].
+dominer et d’observer le marais.
 Le versant boisé constitue un lambeau relique de la forêt de Soignes toute proche ; d’où sa valeur paysagère
 dans cette zone très urbanisée d’Auderghem. Sous les chênes pédonculés, les hêtres, les châtaigniers et
 un mélange d’autres essences, le sol est tapissé de lierre. Y fleurissent des anémones sylvie et du muguet.
